--- a/allRoutes/BinaryOptimizationModel.xlsx
+++ b/allRoutes/BinaryOptimizationModel.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cmu\Spring2023\System Synthesis\Github\PRT_Synthesis\allRoutes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1479422-46DB-409A-928C-B45A54FF7798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21260EB-E1F0-46BF-8B0A-CF230090E8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9769BB3-1C3F-455F-956B-70A6EA7AFC87}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A9769BB3-1C3F-455F-956B-70A6EA7AFC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$H$8:$S$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$H$8:$Q$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$H$8:$S$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$H$8:$Q$8</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -32,7 +32,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$E$2</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$2</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Block</t>
   </si>
@@ -111,12 +111,30 @@
   <si>
     <t>Rank by Blocks Saved</t>
   </si>
+  <si>
+    <t>Number of Charge Locations</t>
+  </si>
+  <si>
+    <t>Number of Failed Blocks</t>
+  </si>
+  <si>
+    <t>(4 failed blocks the result of scheduling anomoly in route 60, in reality these will be sucessful when chargers installed</t>
+  </si>
+  <si>
+    <t>Install Chargers</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +145,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -191,22 +224,84 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -214,7 +309,40 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -225,7 +353,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -233,19 +361,150 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,11 +528,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B4213E-A012-416F-8233-CEECFB6FFEDF}">
-  <dimension ref="B1:AF85"/>
+  <dimension ref="B1:AJ110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="T93" sqref="T93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,56 +936,72 @@
     <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5546875" customWidth="1"/>
+    <col min="34" max="34" width="41.6640625" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
+    <col min="36" max="36" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15">
+        <f>SUM(H8:Q8)</f>
+        <v>6</v>
+      </c>
       <c r="E2"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18">
+        <f>E81</f>
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
       <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="4">
-        <v>4405</v>
+        <v>22827</v>
       </c>
       <c r="I7" s="4">
-        <v>8308</v>
+        <v>16029</v>
       </c>
       <c r="J7" s="4">
         <v>16063</v>
@@ -659,7 +1010,7 @@
         <v>22873</v>
       </c>
       <c r="L7" s="4">
-        <v>16111</v>
+        <v>21046</v>
       </c>
       <c r="M7" s="4">
         <v>8812</v>
@@ -668,58 +1019,56 @@
         <v>19687</v>
       </c>
       <c r="O7" s="4">
-        <v>15276</v>
+        <v>15275</v>
       </c>
       <c r="P7" s="4">
-        <v>22326</v>
+        <v>12620</v>
       </c>
       <c r="Q7" s="4">
-        <v>3302</v>
-      </c>
-      <c r="R7" s="4">
-        <v>21624</v>
+        <v>21623</v>
       </c>
       <c r="S7" s="4">
-        <v>1407</v>
+        <f>H7</f>
+        <v>22827</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" ref="T7:AB7" si="0">I7</f>
+        <v>16029</v>
       </c>
       <c r="U7" s="4">
-        <v>4405</v>
+        <f t="shared" si="0"/>
+        <v>16063</v>
       </c>
       <c r="V7" s="4">
-        <v>8308</v>
+        <f t="shared" si="0"/>
+        <v>22873</v>
       </c>
       <c r="W7" s="4">
-        <v>16063</v>
+        <f t="shared" si="0"/>
+        <v>21046</v>
       </c>
       <c r="X7" s="4">
-        <v>22873</v>
+        <f t="shared" si="0"/>
+        <v>8812</v>
       </c>
       <c r="Y7" s="4">
-        <v>16111</v>
+        <f t="shared" si="0"/>
+        <v>19687</v>
       </c>
       <c r="Z7" s="4">
-        <v>8812</v>
+        <f t="shared" si="0"/>
+        <v>15275</v>
       </c>
       <c r="AA7" s="4">
-        <v>19687</v>
+        <f t="shared" si="0"/>
+        <v>12620</v>
       </c>
       <c r="AB7" s="4">
-        <v>15276</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>22326</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>3302</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>21624</v>
-      </c>
-      <c r="AF7" s="4">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>21623</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
@@ -766,14 +1115,8 @@
       <c r="Q8" s="9">
         <v>0</v>
       </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>183316207</v>
       </c>
@@ -781,7 +1124,7 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D40" si="0">SUMPRODUCT(H9:Q9,$H$8:$Q$8)</f>
+        <f>SUMPRODUCT(H9:P9,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E9" s="1">
@@ -818,62 +1161,48 @@
       <c r="Q9" s="7">
         <v>0</v>
       </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10">
+      <c r="S9" s="10">
         <f>MIN($C9,H9*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T9" s="11">
+        <f>MIN($C9,I9*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="11">
+        <f>MIN($C9,J9*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V9" s="11">
-        <f t="shared" ref="V9:AF9" si="1">MIN($C9,I9*I$8)</f>
+        <f>MIN($C9,K9*K$8)</f>
         <v>0</v>
       </c>
       <c r="W9" s="11">
-        <f t="shared" si="1"/>
+        <f>MIN($C9,L9*L$8)</f>
         <v>0</v>
       </c>
       <c r="X9" s="11">
-        <f t="shared" si="1"/>
+        <f>MIN($C9,M9*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="11">
-        <f t="shared" si="1"/>
+        <f>MIN($C9,N9*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="11">
-        <f t="shared" si="1"/>
+        <f>MIN($C9,O9*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="11">
-        <f t="shared" si="1"/>
+        <f>MIN($C9,P9*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C9,Q9*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>183316807</v>
       </c>
@@ -881,11 +1210,11 @@
         <v>143.05186456559801</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H10:P10,$H$8:$P$8)</f>
         <v>350.36</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10:E73" si="2">IF(C10&gt;D10,1,0)</f>
+        <f t="shared" ref="E10:E73" si="1">IF(C10&gt;D10,1,0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="7">
@@ -918,62 +1247,48 @@
       <c r="Q10" s="7">
         <v>0</v>
       </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="13">
-        <f t="shared" ref="U10:U73" si="3">MIN($C10,H10*H$8)</f>
-        <v>0</v>
+      <c r="S10" s="12">
+        <f>MIN($C10,H10*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>MIN($C10,I10*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>MIN($C10,J10*J$8)</f>
+        <v>143.05186456559801</v>
       </c>
       <c r="V10">
-        <f t="shared" ref="V10:V73" si="4">MIN($C10,I10*I$8)</f>
+        <f>MIN($C10,K10*K$8)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <f t="shared" ref="W10:W73" si="5">MIN($C10,J10*J$8)</f>
-        <v>143.05186456559801</v>
+        <f>MIN($C10,L10*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X10">
-        <f t="shared" ref="X10:X73" si="6">MIN($C10,K10*K$8)</f>
+        <f>MIN($C10,M10*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" ref="Y10:Y73" si="7">MIN($C10,L10*L$8)</f>
+        <f>MIN($C10,N10*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z10">
-        <f t="shared" ref="Z10:Z73" si="8">MIN($C10,M10*M$8)</f>
+        <f>MIN($C10,O10*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA10">
-        <f t="shared" ref="AA10:AA73" si="9">MIN($C10,N10*N$8)</f>
+        <f>MIN($C10,P10*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" ref="AB10:AB73" si="10">MIN($C10,O10*O$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" ref="AC10:AC73" si="11">MIN($C10,P10*P$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" ref="AD10:AD73" si="12">MIN($C10,Q10*Q$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" ref="AE10:AE73" si="13">MIN($C10,R10*R$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="14">
-        <f t="shared" ref="AF10:AF73" si="14">MIN($C10,S10*S$8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C10,Q10*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>183316907</v>
       </c>
@@ -981,11 +1296,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H11:P11,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="7">
@@ -1018,62 +1333,48 @@
       <c r="Q11" s="7">
         <v>0</v>
       </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="13">
-        <f t="shared" si="3"/>
+      <c r="S11" s="12">
+        <f>MIN($C11,H11*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T11">
+        <f>MIN($C11,I11*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>MIN($C11,J11*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V11">
-        <f t="shared" si="4"/>
+        <f>MIN($C11,K11*K$8)</f>
         <v>0</v>
       </c>
       <c r="W11">
-        <f t="shared" si="5"/>
+        <f>MIN($C11,L11*L$8)</f>
         <v>0</v>
       </c>
       <c r="X11">
-        <f t="shared" si="6"/>
+        <f>MIN($C11,M11*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="7"/>
+        <f>MIN($C11,N11*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="8"/>
+        <f>MIN($C11,O11*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="9"/>
+        <f>MIN($C11,P11*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C11,Q11*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>183317007</v>
       </c>
@@ -1081,11 +1382,11 @@
         <v>128.54815995376899</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H12:P12,$H$8:$P$8)</f>
         <v>311.08</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="7">
@@ -1118,62 +1419,48 @@
       <c r="Q12" s="7">
         <v>0</v>
       </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S12" s="12">
+        <f>MIN($C12,H12*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>MIN($C12,I12*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>MIN($C12,J12*J$8)</f>
+        <v>128.54815995376899</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f>MIN($C12,K12*K$8)</f>
         <v>0</v>
       </c>
       <c r="W12">
-        <f t="shared" si="5"/>
-        <v>128.54815995376899</v>
+        <f>MIN($C12,L12*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X12">
-        <f t="shared" si="6"/>
+        <f>MIN($C12,M12*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="7"/>
+        <f>MIN($C12,N12*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="8"/>
+        <f>MIN($C12,O12*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="9"/>
+        <f>MIN($C12,P12*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C12,Q12*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>183317207</v>
       </c>
@@ -1181,11 +1468,11 @@
         <v>114.044455341941</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H13:P13,$H$8:$P$8)</f>
         <v>280.08</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="7">
@@ -1218,62 +1505,48 @@
       <c r="Q13" s="7">
         <v>0</v>
       </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S13" s="12">
+        <f>MIN($C13,H13*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>MIN($C13,I13*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f>MIN($C13,J13*J$8)</f>
+        <v>114.044455341941</v>
       </c>
       <c r="V13">
-        <f t="shared" si="4"/>
+        <f>MIN($C13,K13*K$8)</f>
         <v>0</v>
       </c>
       <c r="W13">
-        <f t="shared" si="5"/>
-        <v>114.044455341941</v>
+        <f>MIN($C13,L13*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X13">
-        <f t="shared" si="6"/>
+        <f>MIN($C13,M13*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="7"/>
+        <f>MIN($C13,N13*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="8"/>
+        <f>MIN($C13,O13*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="9"/>
+        <f>MIN($C13,P13*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C13,Q13*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>183317307</v>
       </c>
@@ -1281,11 +1554,11 @@
         <v>215.57038762473999</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H14:P14,$H$8:$P$8)</f>
         <v>454.94</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="7">
@@ -1318,62 +1591,48 @@
       <c r="Q14" s="7">
         <v>0</v>
       </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S14" s="12">
+        <f>MIN($C14,H14*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>MIN($C14,I14*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>MIN($C14,J14*J$8)</f>
+        <v>215.57038762473999</v>
       </c>
       <c r="V14">
-        <f t="shared" si="4"/>
+        <f>MIN($C14,K14*K$8)</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <f t="shared" si="5"/>
-        <v>215.57038762473999</v>
+        <f>MIN($C14,L14*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X14">
-        <f t="shared" si="6"/>
+        <f>MIN($C14,M14*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="7"/>
+        <f>MIN($C14,N14*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="8"/>
+        <f>MIN($C14,O14*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="9"/>
+        <f>MIN($C14,P14*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C14,Q14*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>183317507</v>
       </c>
@@ -1381,11 +1640,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H15:P15,$H$8:$P$8)</f>
         <v>40.369999999999997</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="7">
@@ -1418,62 +1677,48 @@
       <c r="Q15" s="7">
         <v>0</v>
       </c>
-      <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="13">
-        <f t="shared" si="3"/>
+      <c r="S15" s="12">
+        <f>MIN($C15,H15*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T15">
+        <f>MIN($C15,I15*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f>MIN($C15,J15*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V15">
-        <f t="shared" si="4"/>
+        <f>MIN($C15,K15*K$8)</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="5"/>
+        <f>MIN($C15,L15*L$8)</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="6"/>
+        <f>MIN($C15,M15*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="7"/>
+        <f>MIN($C15,N15*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="8"/>
+        <f>MIN($C15,O15*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="9"/>
+        <f>MIN($C15,P15*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C15,Q15*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>183317907</v>
       </c>
@@ -1481,11 +1726,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H16:P16,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="7">
@@ -1518,62 +1763,48 @@
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="13">
-        <f t="shared" si="3"/>
+      <c r="S16" s="12">
+        <f>MIN($C16,H16*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T16">
+        <f>MIN($C16,I16*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f>MIN($C16,J16*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V16">
-        <f t="shared" si="4"/>
+        <f>MIN($C16,K16*K$8)</f>
         <v>0</v>
       </c>
       <c r="W16">
-        <f t="shared" si="5"/>
+        <f>MIN($C16,L16*L$8)</f>
         <v>0</v>
       </c>
       <c r="X16">
-        <f t="shared" si="6"/>
+        <f>MIN($C16,M16*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="7"/>
+        <f>MIN($C16,N16*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="8"/>
+        <f>MIN($C16,O16*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="9"/>
+        <f>MIN($C16,P16*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C16,Q16*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>183318807</v>
       </c>
@@ -1581,11 +1812,11 @@
         <v>138.01172174307399</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H17:P17,$H$8:$P$8)</f>
         <v>162.91999999999999</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="7">
@@ -1618,62 +1849,48 @@
       <c r="Q17" s="7">
         <v>0</v>
       </c>
-      <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="13">
-        <f t="shared" si="3"/>
+      <c r="S17" s="12">
+        <f>MIN($C17,H17*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>MIN($C17,I17*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>MIN($C17,J17*J$8)</f>
         <v>0</v>
       </c>
       <c r="V17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C17,K17*K$8)</f>
+        <v>138.01172174307399</v>
       </c>
       <c r="W17">
-        <f t="shared" si="5"/>
+        <f>MIN($C17,L17*L$8)</f>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="6"/>
-        <v>138.01172174307399</v>
+        <f>MIN($C17,M17*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="7"/>
+        <f>MIN($C17,N17*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="8"/>
+        <f>MIN($C17,O17*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="9"/>
+        <f>MIN($C17,P17*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C17,Q17*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>183319907</v>
       </c>
@@ -1681,11 +1898,11 @@
         <v>106.591789222911</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H18:P18,$H$8:$P$8)</f>
         <v>176.21</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="7">
@@ -1718,62 +1935,48 @@
       <c r="Q18" s="7">
         <v>0</v>
       </c>
-      <c r="R18" s="7">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="U18" s="13">
-        <f t="shared" si="3"/>
+      <c r="S18" s="12">
+        <f>MIN($C18,H18*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>MIN($C18,I18*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>MIN($C18,J18*J$8)</f>
         <v>0</v>
       </c>
       <c r="V18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C18,K18*K$8)</f>
+        <v>106.591789222911</v>
       </c>
       <c r="W18">
-        <f t="shared" si="5"/>
+        <f>MIN($C18,L18*L$8)</f>
         <v>0</v>
       </c>
       <c r="X18">
-        <f t="shared" si="6"/>
-        <v>106.591789222911</v>
+        <f>MIN($C18,M18*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="7"/>
+        <f>MIN($C18,N18*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="8"/>
+        <f>MIN($C18,O18*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="9"/>
+        <f>MIN($C18,P18*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C18,Q18*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>183320807</v>
       </c>
@@ -1781,11 +1984,11 @@
         <v>76.231752502267994</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H19:P19,$H$8:$P$8)</f>
         <v>130.36000000000001</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="7">
@@ -1818,62 +2021,48 @@
       <c r="Q19" s="7">
         <v>0</v>
       </c>
-      <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="13">
-        <f t="shared" si="3"/>
+      <c r="S19" s="12">
+        <f>MIN($C19,H19*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>MIN($C19,I19*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f>MIN($C19,J19*J$8)</f>
         <v>0</v>
       </c>
       <c r="V19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C19,K19*K$8)</f>
+        <v>76.231752502267994</v>
       </c>
       <c r="W19">
-        <f t="shared" si="5"/>
+        <f>MIN($C19,L19*L$8)</f>
         <v>0</v>
       </c>
       <c r="X19">
-        <f t="shared" si="6"/>
-        <v>76.231752502267994</v>
+        <f>MIN($C19,M19*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="7"/>
+        <f>MIN($C19,N19*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="8"/>
+        <f>MIN($C19,O19*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="9"/>
+        <f>MIN($C19,P19*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C19,Q19*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>183321307</v>
       </c>
@@ -1881,11 +2070,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H20:P20,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="7">
@@ -1918,62 +2107,48 @@
       <c r="Q20" s="7">
         <v>0</v>
       </c>
-      <c r="R20" s="7">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="13">
-        <f t="shared" si="3"/>
+      <c r="S20" s="12">
+        <f>MIN($C20,H20*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T20">
+        <f>MIN($C20,I20*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f>MIN($C20,J20*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V20">
-        <f t="shared" si="4"/>
+        <f>MIN($C20,K20*K$8)</f>
         <v>0</v>
       </c>
       <c r="W20">
-        <f t="shared" si="5"/>
+        <f>MIN($C20,L20*L$8)</f>
         <v>0</v>
       </c>
       <c r="X20">
-        <f t="shared" si="6"/>
+        <f>MIN($C20,M20*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="7"/>
+        <f>MIN($C20,N20*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="8"/>
+        <f>MIN($C20,O20*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="9"/>
+        <f>MIN($C20,P20*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C20,Q20*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>183321507</v>
       </c>
@@ -1981,11 +2156,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H21:P21,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="7">
@@ -2018,62 +2193,48 @@
       <c r="Q21" s="7">
         <v>0</v>
       </c>
-      <c r="R21" s="7">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="13">
-        <f t="shared" si="3"/>
+      <c r="S21" s="12">
+        <f>MIN($C21,H21*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T21">
+        <f>MIN($C21,I21*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>MIN($C21,J21*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V21">
-        <f t="shared" si="4"/>
+        <f>MIN($C21,K21*K$8)</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <f t="shared" si="5"/>
+        <f>MIN($C21,L21*L$8)</f>
         <v>0</v>
       </c>
       <c r="X21">
-        <f t="shared" si="6"/>
+        <f>MIN($C21,M21*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="7"/>
+        <f>MIN($C21,N21*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="8"/>
+        <f>MIN($C21,O21*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="9"/>
+        <f>MIN($C21,P21*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C21,Q21*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>183321707</v>
       </c>
@@ -2081,11 +2242,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H22:P22,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H22" s="7">
@@ -2118,62 +2279,48 @@
       <c r="Q22" s="7">
         <v>0</v>
       </c>
-      <c r="R22" s="7">
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="13">
-        <f t="shared" si="3"/>
+      <c r="S22" s="12">
+        <f>MIN($C22,H22*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T22">
+        <f>MIN($C22,I22*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f>MIN($C22,J22*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V22">
-        <f t="shared" si="4"/>
+        <f>MIN($C22,K22*K$8)</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" si="5"/>
+        <f>MIN($C22,L22*L$8)</f>
         <v>0</v>
       </c>
       <c r="X22">
-        <f t="shared" si="6"/>
+        <f>MIN($C22,M22*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="7"/>
+        <f>MIN($C22,N22*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="8"/>
+        <f>MIN($C22,O22*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="9"/>
+        <f>MIN($C22,P22*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C22,Q22*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>183322607</v>
       </c>
@@ -2181,11 +2328,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H23:P23,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H23" s="7">
@@ -2218,62 +2365,48 @@
       <c r="Q23" s="7">
         <v>0</v>
       </c>
-      <c r="R23" s="7">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="13">
-        <f t="shared" si="3"/>
+      <c r="S23" s="12">
+        <f>MIN($C23,H23*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T23">
+        <f>MIN($C23,I23*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f>MIN($C23,J23*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V23">
-        <f t="shared" si="4"/>
+        <f>MIN($C23,K23*K$8)</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <f t="shared" si="5"/>
+        <f>MIN($C23,L23*L$8)</f>
         <v>0</v>
       </c>
       <c r="X23">
-        <f t="shared" si="6"/>
+        <f>MIN($C23,M23*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="7"/>
+        <f>MIN($C23,N23*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="8"/>
+        <f>MIN($C23,O23*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="9"/>
+        <f>MIN($C23,P23*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C23,Q23*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>183324507</v>
       </c>
@@ -2281,11 +2414,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H24:P24,$H$8:$P$8)</f>
         <v>43.81</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="7">
@@ -2318,62 +2451,48 @@
       <c r="Q24" s="7">
         <v>0</v>
       </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0</v>
-      </c>
-      <c r="U24" s="13">
-        <f t="shared" si="3"/>
+      <c r="S24" s="12">
+        <f>MIN($C24,H24*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T24">
+        <f>MIN($C24,I24*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>MIN($C24,J24*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V24">
-        <f t="shared" si="4"/>
+        <f>MIN($C24,K24*K$8)</f>
         <v>0</v>
       </c>
       <c r="W24">
-        <f t="shared" si="5"/>
+        <f>MIN($C24,L24*L$8)</f>
         <v>0</v>
       </c>
       <c r="X24">
-        <f t="shared" si="6"/>
+        <f>MIN($C24,M24*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="7"/>
+        <f>MIN($C24,N24*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="8"/>
+        <f>MIN($C24,O24*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="9"/>
+        <f>MIN($C24,P24*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C24,Q24*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>183340301</v>
       </c>
@@ -2381,11 +2500,11 @@
         <v>106.591789222911</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H25:P25,$H$8:$P$8)</f>
         <v>197.22</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H25" s="7">
@@ -2418,62 +2537,48 @@
       <c r="Q25" s="7">
         <v>0</v>
       </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="13">
-        <f t="shared" si="3"/>
+      <c r="S25" s="12">
+        <f>MIN($C25,H25*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f>MIN($C25,I25*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f>MIN($C25,J25*J$8)</f>
         <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C25,K25*K$8)</f>
+        <v>106.591789222911</v>
       </c>
       <c r="W25">
-        <f t="shared" si="5"/>
+        <f>MIN($C25,L25*L$8)</f>
         <v>0</v>
       </c>
       <c r="X25">
-        <f t="shared" si="6"/>
-        <v>106.591789222911</v>
+        <f>MIN($C25,M25*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="7"/>
+        <f>MIN($C25,N25*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="8"/>
+        <f>MIN($C25,O25*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="9"/>
+        <f>MIN($C25,P25*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C25,Q25*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>183341001</v>
       </c>
@@ -2481,11 +2586,11 @@
         <v>93.668821760473193</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H26:P26,$H$8:$P$8)</f>
         <v>201.93</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H26" s="7">
@@ -2518,62 +2623,48 @@
       <c r="Q26" s="7">
         <v>0</v>
       </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="13">
-        <f t="shared" si="3"/>
+      <c r="S26" s="12">
+        <f>MIN($C26,H26*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f>MIN($C26,I26*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f>MIN($C26,J26*J$8)</f>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C26,K26*K$8)</f>
+        <v>93.668821760473193</v>
       </c>
       <c r="W26">
-        <f t="shared" si="5"/>
+        <f>MIN($C26,L26*L$8)</f>
         <v>0</v>
       </c>
       <c r="X26">
-        <f t="shared" si="6"/>
-        <v>93.668821760473193</v>
+        <f>MIN($C26,M26*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="7"/>
+        <f>MIN($C26,N26*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="8"/>
+        <f>MIN($C26,O26*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="9"/>
+        <f>MIN($C26,P26*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C26,Q26*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>183341701</v>
       </c>
@@ -2581,11 +2672,11 @@
         <v>76.231752502267994</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H27:P27,$H$8:$P$8)</f>
         <v>153.93</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="7">
@@ -2618,62 +2709,48 @@
       <c r="Q27" s="7">
         <v>0</v>
       </c>
-      <c r="R27" s="7">
-        <v>0</v>
-      </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-      <c r="U27" s="13">
-        <f t="shared" si="3"/>
+      <c r="S27" s="12">
+        <f>MIN($C27,H27*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f>MIN($C27,I27*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f>MIN($C27,J27*J$8)</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C27,K27*K$8)</f>
+        <v>76.231752502267994</v>
       </c>
       <c r="W27">
-        <f t="shared" si="5"/>
+        <f>MIN($C27,L27*L$8)</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f t="shared" si="6"/>
-        <v>76.231752502267994</v>
+        <f>MIN($C27,M27*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="7"/>
+        <f>MIN($C27,N27*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="8"/>
+        <f>MIN($C27,O27*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="9"/>
+        <f>MIN($C27,P27*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C27,Q27*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>183342301</v>
       </c>
@@ -2681,11 +2758,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H28:P28,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="7">
@@ -2718,62 +2795,48 @@
       <c r="Q28" s="7">
         <v>0</v>
       </c>
-      <c r="R28" s="7">
-        <v>0</v>
-      </c>
-      <c r="S28" s="7">
-        <v>0</v>
-      </c>
-      <c r="U28" s="13">
-        <f t="shared" si="3"/>
+      <c r="S28" s="12">
+        <f>MIN($C28,H28*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T28">
+        <f>MIN($C28,I28*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f>MIN($C28,J28*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V28">
-        <f t="shared" si="4"/>
+        <f>MIN($C28,K28*K$8)</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f t="shared" si="5"/>
+        <f>MIN($C28,L28*L$8)</f>
         <v>0</v>
       </c>
       <c r="X28">
-        <f t="shared" si="6"/>
+        <f>MIN($C28,M28*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="7"/>
+        <f>MIN($C28,N28*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="8"/>
+        <f>MIN($C28,O28*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="9"/>
+        <f>MIN($C28,P28*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C28,Q28*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>183343201</v>
       </c>
@@ -2781,11 +2844,11 @@
         <v>201.06668301291199</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H29:P29,$H$8:$P$8)</f>
         <v>461.79</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H29" s="7">
@@ -2818,62 +2881,48 @@
       <c r="Q29" s="7">
         <v>0</v>
       </c>
-      <c r="R29" s="7">
-        <v>0</v>
-      </c>
-      <c r="S29" s="7">
-        <v>0</v>
-      </c>
-      <c r="U29" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S29" s="12">
+        <f>MIN($C29,H29*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>MIN($C29,I29*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>MIN($C29,J29*J$8)</f>
+        <v>201.06668301291199</v>
       </c>
       <c r="V29">
-        <f t="shared" si="4"/>
+        <f>MIN($C29,K29*K$8)</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <f t="shared" si="5"/>
-        <v>201.06668301291199</v>
+        <f>MIN($C29,L29*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X29">
-        <f t="shared" si="6"/>
+        <f>MIN($C29,M29*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="7"/>
+        <f>MIN($C29,N29*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="8"/>
+        <f>MIN($C29,O29*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="9"/>
+        <f>MIN($C29,P29*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C29,Q29*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>183343801</v>
       </c>
@@ -2881,11 +2930,11 @@
         <v>114.044455341941</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H30:P30,$H$8:$P$8)</f>
         <v>309.88</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H30" s="7">
@@ -2918,62 +2967,48 @@
       <c r="Q30" s="7">
         <v>0</v>
       </c>
-      <c r="R30" s="7">
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
-        <v>0</v>
-      </c>
-      <c r="U30" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S30" s="12">
+        <f>MIN($C30,H30*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>MIN($C30,I30*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>MIN($C30,J30*J$8)</f>
+        <v>114.044455341941</v>
       </c>
       <c r="V30">
-        <f t="shared" si="4"/>
+        <f>MIN($C30,K30*K$8)</f>
         <v>0</v>
       </c>
       <c r="W30">
-        <f t="shared" si="5"/>
-        <v>114.044455341941</v>
+        <f>MIN($C30,L30*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X30">
-        <f t="shared" si="6"/>
+        <f>MIN($C30,M30*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="7"/>
+        <f>MIN($C30,N30*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="8"/>
+        <f>MIN($C30,O30*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="9"/>
+        <f>MIN($C30,P30*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C30,Q30*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>183344301</v>
       </c>
@@ -2981,11 +3016,11 @@
         <v>157.55556917742601</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H31:P31,$H$8:$P$8)</f>
         <v>391.51</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H31" s="7">
@@ -3018,62 +3053,48 @@
       <c r="Q31" s="7">
         <v>0</v>
       </c>
-      <c r="R31" s="7">
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <v>0</v>
-      </c>
-      <c r="U31" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S31" s="12">
+        <f>MIN($C31,H31*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f>MIN($C31,I31*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f>MIN($C31,J31*J$8)</f>
+        <v>157.55556917742601</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f>MIN($C31,K31*K$8)</f>
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" si="5"/>
-        <v>157.55556917742601</v>
+        <f>MIN($C31,L31*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X31">
-        <f t="shared" si="6"/>
+        <f>MIN($C31,M31*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="7"/>
+        <f>MIN($C31,N31*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="8"/>
+        <f>MIN($C31,O31*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="9"/>
+        <f>MIN($C31,P31*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB31">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C31,Q31*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>183345101</v>
       </c>
@@ -3081,11 +3102,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H32:P32,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32" s="7">
@@ -3118,62 +3139,48 @@
       <c r="Q32" s="7">
         <v>0</v>
       </c>
-      <c r="R32" s="7">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="13">
-        <f t="shared" si="3"/>
+      <c r="S32" s="12">
+        <f>MIN($C32,H32*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T32">
+        <f>MIN($C32,I32*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f>MIN($C32,J32*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V32">
-        <f t="shared" si="4"/>
+        <f>MIN($C32,K32*K$8)</f>
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="5"/>
+        <f>MIN($C32,L32*L$8)</f>
         <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" si="6"/>
+        <f>MIN($C32,M32*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="7"/>
+        <f>MIN($C32,N32*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="8"/>
+        <f>MIN($C32,O32*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="9"/>
+        <f>MIN($C32,P32*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C32,Q32*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>183345801</v>
       </c>
@@ -3181,11 +3188,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H33:P33,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33" s="7">
@@ -3218,62 +3225,48 @@
       <c r="Q33" s="7">
         <v>0</v>
       </c>
-      <c r="R33" s="7">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
-        <f t="shared" si="3"/>
+      <c r="S33" s="12">
+        <f>MIN($C33,H33*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T33">
+        <f>MIN($C33,I33*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f>MIN($C33,J33*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V33">
-        <f t="shared" si="4"/>
+        <f>MIN($C33,K33*K$8)</f>
         <v>0</v>
       </c>
       <c r="W33">
-        <f t="shared" si="5"/>
+        <f>MIN($C33,L33*L$8)</f>
         <v>0</v>
       </c>
       <c r="X33">
-        <f t="shared" si="6"/>
+        <f>MIN($C33,M33*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="7"/>
+        <f>MIN($C33,N33*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="8"/>
+        <f>MIN($C33,O33*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="9"/>
+        <f>MIN($C33,P33*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C33,Q33*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>183346001</v>
       </c>
@@ -3281,11 +3274,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H34:P34,$H$8:$P$8)</f>
         <v>43.81</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H34" s="7">
@@ -3318,62 +3311,48 @@
       <c r="Q34" s="7">
         <v>0</v>
       </c>
-      <c r="R34" s="7">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0</v>
-      </c>
-      <c r="U34" s="13">
-        <f t="shared" si="3"/>
+      <c r="S34" s="12">
+        <f>MIN($C34,H34*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T34">
+        <f>MIN($C34,I34*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f>MIN($C34,J34*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V34">
-        <f t="shared" si="4"/>
+        <f>MIN($C34,K34*K$8)</f>
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="5"/>
+        <f>MIN($C34,L34*L$8)</f>
         <v>0</v>
       </c>
       <c r="X34">
-        <f t="shared" si="6"/>
+        <f>MIN($C34,M34*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="7"/>
+        <f>MIN($C34,N34*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="8"/>
+        <f>MIN($C34,O34*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="9"/>
+        <f>MIN($C34,P34*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C34,Q34*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>183346401</v>
       </c>
@@ -3381,11 +3360,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H35:P35,$H$8:$P$8)</f>
         <v>43.81</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" s="7">
@@ -3418,62 +3397,48 @@
       <c r="Q35" s="7">
         <v>0</v>
       </c>
-      <c r="R35" s="7">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
-        <v>0</v>
-      </c>
-      <c r="U35" s="13">
-        <f t="shared" si="3"/>
+      <c r="S35" s="12">
+        <f>MIN($C35,H35*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T35">
+        <f>MIN($C35,I35*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f>MIN($C35,J35*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V35">
-        <f t="shared" si="4"/>
+        <f>MIN($C35,K35*K$8)</f>
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="5"/>
+        <f>MIN($C35,L35*L$8)</f>
         <v>0</v>
       </c>
       <c r="X35">
-        <f t="shared" si="6"/>
+        <f>MIN($C35,M35*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="7"/>
+        <f>MIN($C35,N35*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="8"/>
+        <f>MIN($C35,O35*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="9"/>
+        <f>MIN($C35,P35*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C35,Q35*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>183346601</v>
       </c>
@@ -3481,11 +3446,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H36:P36,$H$8:$P$8)</f>
         <v>45.52</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="7">
@@ -3518,62 +3483,48 @@
       <c r="Q36" s="7">
         <v>0</v>
       </c>
-      <c r="R36" s="7">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0</v>
-      </c>
-      <c r="U36" s="13">
-        <f t="shared" si="3"/>
+      <c r="S36" s="12">
+        <f>MIN($C36,H36*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T36">
+        <f>MIN($C36,I36*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>MIN($C36,J36*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V36">
-        <f t="shared" si="4"/>
+        <f>MIN($C36,K36*K$8)</f>
         <v>0</v>
       </c>
       <c r="W36">
-        <f t="shared" si="5"/>
+        <f>MIN($C36,L36*L$8)</f>
         <v>0</v>
       </c>
       <c r="X36">
-        <f t="shared" si="6"/>
+        <f>MIN($C36,M36*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="7"/>
+        <f>MIN($C36,N36*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="8"/>
+        <f>MIN($C36,O36*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="9"/>
+        <f>MIN($C36,P36*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C36,Q36*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>183360508</v>
       </c>
@@ -3581,11 +3532,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H37:P37,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" s="7">
@@ -3618,62 +3569,48 @@
       <c r="Q37" s="7">
         <v>0</v>
       </c>
-      <c r="R37" s="7">
-        <v>0</v>
-      </c>
-      <c r="S37" s="7">
-        <v>0</v>
-      </c>
-      <c r="U37" s="13">
-        <f t="shared" si="3"/>
+      <c r="S37" s="12">
+        <f>MIN($C37,H37*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T37">
+        <f>MIN($C37,I37*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f>MIN($C37,J37*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V37">
-        <f t="shared" si="4"/>
+        <f>MIN($C37,K37*K$8)</f>
         <v>0</v>
       </c>
       <c r="W37">
-        <f t="shared" si="5"/>
+        <f>MIN($C37,L37*L$8)</f>
         <v>0</v>
       </c>
       <c r="X37">
-        <f t="shared" si="6"/>
+        <f>MIN($C37,M37*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="shared" si="7"/>
+        <f>MIN($C37,N37*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="8"/>
+        <f>MIN($C37,O37*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="9"/>
+        <f>MIN($C37,P37*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C37,Q37*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>183361208</v>
       </c>
@@ -3681,11 +3618,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H38:P38,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="7">
@@ -3718,62 +3655,48 @@
       <c r="Q38" s="7">
         <v>0</v>
       </c>
-      <c r="R38" s="7">
-        <v>0</v>
-      </c>
-      <c r="S38" s="7">
-        <v>0</v>
-      </c>
-      <c r="U38" s="13">
-        <f t="shared" si="3"/>
+      <c r="S38" s="12">
+        <f>MIN($C38,H38*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T38">
+        <f>MIN($C38,I38*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f>MIN($C38,J38*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V38">
-        <f t="shared" si="4"/>
+        <f>MIN($C38,K38*K$8)</f>
         <v>0</v>
       </c>
       <c r="W38">
-        <f t="shared" si="5"/>
+        <f>MIN($C38,L38*L$8)</f>
         <v>0</v>
       </c>
       <c r="X38">
-        <f t="shared" si="6"/>
+        <f>MIN($C38,M38*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="7"/>
+        <f>MIN($C38,N38*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="8"/>
+        <f>MIN($C38,O38*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="9"/>
+        <f>MIN($C38,P38*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF38" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C38,Q38*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>183361408</v>
       </c>
@@ -3781,11 +3704,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H39:P39,$H$8:$P$8)</f>
         <v>43.81</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="7">
@@ -3818,62 +3741,48 @@
       <c r="Q39" s="7">
         <v>0</v>
       </c>
-      <c r="R39" s="7">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7">
-        <v>0</v>
-      </c>
-      <c r="U39" s="13">
-        <f t="shared" si="3"/>
+      <c r="S39" s="12">
+        <f>MIN($C39,H39*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T39">
+        <f>MIN($C39,I39*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <f>MIN($C39,J39*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V39">
-        <f t="shared" si="4"/>
+        <f>MIN($C39,K39*K$8)</f>
         <v>0</v>
       </c>
       <c r="W39">
-        <f t="shared" si="5"/>
+        <f>MIN($C39,L39*L$8)</f>
         <v>0</v>
       </c>
       <c r="X39">
-        <f t="shared" si="6"/>
+        <f>MIN($C39,M39*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="7"/>
+        <f>MIN($C39,N39*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="8"/>
+        <f>MIN($C39,O39*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="9"/>
+        <f>MIN($C39,P39*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C39,Q39*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>183361808</v>
       </c>
@@ -3881,11 +3790,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(H40:P40,$H$8:$P$8)</f>
         <v>43.81</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" s="7">
@@ -3918,62 +3827,48 @@
       <c r="Q40" s="7">
         <v>0</v>
       </c>
-      <c r="R40" s="7">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
-        <v>0</v>
-      </c>
-      <c r="U40" s="13">
-        <f t="shared" si="3"/>
+      <c r="S40" s="12">
+        <f>MIN($C40,H40*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T40">
+        <f>MIN($C40,I40*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <f>MIN($C40,J40*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V40">
-        <f t="shared" si="4"/>
+        <f>MIN($C40,K40*K$8)</f>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="5"/>
+        <f>MIN($C40,L40*L$8)</f>
         <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="6"/>
+        <f>MIN($C40,M40*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="7"/>
+        <f>MIN($C40,N40*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="8"/>
+        <f>MIN($C40,O40*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="9"/>
+        <f>MIN($C40,P40*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C40,Q40*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>183362008</v>
       </c>
@@ -3981,11 +3876,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" ref="D41:D72" si="15">SUMPRODUCT(H41:Q41,$H$8:$Q$8)</f>
+        <f>SUMPRODUCT(H41:P41,$H$8:$P$8)</f>
         <v>45.52</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" s="7">
@@ -4018,62 +3913,48 @@
       <c r="Q41" s="7">
         <v>0</v>
       </c>
-      <c r="R41" s="7">
-        <v>0</v>
-      </c>
-      <c r="S41" s="7">
-        <v>0</v>
-      </c>
-      <c r="U41" s="13">
-        <f t="shared" si="3"/>
+      <c r="S41" s="12">
+        <f>MIN($C41,H41*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T41">
+        <f>MIN($C41,I41*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <f>MIN($C41,J41*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V41">
-        <f t="shared" si="4"/>
+        <f>MIN($C41,K41*K$8)</f>
         <v>0</v>
       </c>
       <c r="W41">
-        <f t="shared" si="5"/>
+        <f>MIN($C41,L41*L$8)</f>
         <v>0</v>
       </c>
       <c r="X41">
-        <f t="shared" si="6"/>
+        <f>MIN($C41,M41*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="7"/>
+        <f>MIN($C41,N41*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="8"/>
+        <f>MIN($C41,O41*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="9"/>
+        <f>MIN($C41,P41*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF41" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C41,Q41*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>183375908</v>
       </c>
@@ -4081,11 +3962,11 @@
         <v>106.591789222911</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H42:P42,$H$8:$P$8)</f>
         <v>197.21</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" s="7">
@@ -4118,62 +3999,48 @@
       <c r="Q42" s="7">
         <v>0</v>
       </c>
-      <c r="R42" s="7">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7">
-        <v>0</v>
-      </c>
-      <c r="U42" s="13">
-        <f t="shared" si="3"/>
+      <c r="S42" s="12">
+        <f>MIN($C42,H42*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f>MIN($C42,I42*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f>MIN($C42,J42*J$8)</f>
         <v>0</v>
       </c>
       <c r="V42">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C42,K42*K$8)</f>
+        <v>106.591789222911</v>
       </c>
       <c r="W42">
-        <f t="shared" si="5"/>
+        <f>MIN($C42,L42*L$8)</f>
         <v>0</v>
       </c>
       <c r="X42">
-        <f t="shared" si="6"/>
-        <v>106.591789222911</v>
+        <f>MIN($C42,M42*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="7"/>
+        <f>MIN($C42,N42*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="8"/>
+        <f>MIN($C42,O42*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="9"/>
+        <f>MIN($C42,P42*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C42,Q42*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>183376608</v>
       </c>
@@ -4181,11 +4048,11 @@
         <v>93.668821760473193</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H43:P43,$H$8:$P$8)</f>
         <v>201.92</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" s="7">
@@ -4218,62 +4085,48 @@
       <c r="Q43" s="7">
         <v>0</v>
       </c>
-      <c r="R43" s="7">
-        <v>0</v>
-      </c>
-      <c r="S43" s="7">
-        <v>0</v>
-      </c>
-      <c r="U43" s="13">
-        <f t="shared" si="3"/>
+      <c r="S43" s="12">
+        <f>MIN($C43,H43*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f>MIN($C43,I43*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f>MIN($C43,J43*J$8)</f>
         <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C43,K43*K$8)</f>
+        <v>93.668821760473193</v>
       </c>
       <c r="W43">
-        <f t="shared" si="5"/>
+        <f>MIN($C43,L43*L$8)</f>
         <v>0</v>
       </c>
       <c r="X43">
-        <f t="shared" si="6"/>
-        <v>93.668821760473193</v>
+        <f>MIN($C43,M43*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="7"/>
+        <f>MIN($C43,N43*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="8"/>
+        <f>MIN($C43,O43*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="9"/>
+        <f>MIN($C43,P43*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C43,Q43*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>183377308</v>
       </c>
@@ -4281,11 +4134,11 @@
         <v>76.231752502267994</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H44:P44,$H$8:$P$8)</f>
         <v>153.93</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" s="7">
@@ -4318,62 +4171,48 @@
       <c r="Q44" s="7">
         <v>0</v>
       </c>
-      <c r="R44" s="7">
-        <v>0</v>
-      </c>
-      <c r="S44" s="7">
-        <v>0</v>
-      </c>
-      <c r="U44" s="13">
-        <f t="shared" si="3"/>
+      <c r="S44" s="12">
+        <f>MIN($C44,H44*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f>MIN($C44,I44*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f>MIN($C44,J44*J$8)</f>
         <v>0</v>
       </c>
       <c r="V44">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C44,K44*K$8)</f>
+        <v>76.231752502267994</v>
       </c>
       <c r="W44">
-        <f t="shared" si="5"/>
+        <f>MIN($C44,L44*L$8)</f>
         <v>0</v>
       </c>
       <c r="X44">
-        <f t="shared" si="6"/>
-        <v>76.231752502267994</v>
+        <f>MIN($C44,M44*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="7"/>
+        <f>MIN($C44,N44*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="8"/>
+        <f>MIN($C44,O44*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="9"/>
+        <f>MIN($C44,P44*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C44,Q44*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>183377908</v>
       </c>
@@ -4381,11 +4220,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H45:P45,$H$8:$P$8)</f>
         <v>47.23</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" s="7">
@@ -4418,62 +4257,48 @@
       <c r="Q45" s="7">
         <v>0</v>
       </c>
-      <c r="R45" s="7">
-        <v>0</v>
-      </c>
-      <c r="S45" s="7">
-        <v>0</v>
-      </c>
-      <c r="U45" s="13">
-        <f t="shared" si="3"/>
+      <c r="S45" s="12">
+        <f>MIN($C45,H45*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T45">
+        <f>MIN($C45,I45*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>MIN($C45,J45*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V45">
-        <f t="shared" si="4"/>
+        <f>MIN($C45,K45*K$8)</f>
         <v>0</v>
       </c>
       <c r="W45">
-        <f t="shared" si="5"/>
+        <f>MIN($C45,L45*L$8)</f>
         <v>0</v>
       </c>
       <c r="X45">
-        <f t="shared" si="6"/>
+        <f>MIN($C45,M45*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="7"/>
+        <f>MIN($C45,N45*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="8"/>
+        <f>MIN($C45,O45*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="9"/>
+        <f>MIN($C45,P45*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C45,Q45*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>183378808</v>
       </c>
@@ -4481,11 +4306,11 @@
         <v>201.06668301291199</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H46:P46,$H$8:$P$8)</f>
         <v>461.79</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46" s="7">
@@ -4518,62 +4343,48 @@
       <c r="Q46" s="7">
         <v>0</v>
       </c>
-      <c r="R46" s="7">
-        <v>0</v>
-      </c>
-      <c r="S46" s="7">
-        <v>0</v>
-      </c>
-      <c r="U46" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S46" s="12">
+        <f>MIN($C46,H46*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f>MIN($C46,I46*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>MIN($C46,J46*J$8)</f>
+        <v>201.06668301291199</v>
       </c>
       <c r="V46">
-        <f t="shared" si="4"/>
+        <f>MIN($C46,K46*K$8)</f>
         <v>0</v>
       </c>
       <c r="W46">
-        <f t="shared" si="5"/>
-        <v>201.06668301291199</v>
+        <f>MIN($C46,L46*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X46">
-        <f t="shared" si="6"/>
+        <f>MIN($C46,M46*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="7"/>
+        <f>MIN($C46,N46*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="8"/>
+        <f>MIN($C46,O46*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="9"/>
+        <f>MIN($C46,P46*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF46" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C46,Q46*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>183379408</v>
       </c>
@@ -4581,11 +4392,11 @@
         <v>114.044455341941</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H47:P47,$H$8:$P$8)</f>
         <v>309.88</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H47" s="7">
@@ -4618,62 +4429,48 @@
       <c r="Q47" s="7">
         <v>0</v>
       </c>
-      <c r="R47" s="7">
-        <v>0</v>
-      </c>
-      <c r="S47" s="7">
-        <v>0</v>
-      </c>
-      <c r="U47" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S47" s="12">
+        <f>MIN($C47,H47*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f>MIN($C47,I47*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f>MIN($C47,J47*J$8)</f>
+        <v>114.044455341941</v>
       </c>
       <c r="V47">
-        <f t="shared" si="4"/>
+        <f>MIN($C47,K47*K$8)</f>
         <v>0</v>
       </c>
       <c r="W47">
-        <f t="shared" si="5"/>
-        <v>114.044455341941</v>
+        <f>MIN($C47,L47*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X47">
-        <f t="shared" si="6"/>
+        <f>MIN($C47,M47*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="7"/>
+        <f>MIN($C47,N47*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="8"/>
+        <f>MIN($C47,O47*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="9"/>
+        <f>MIN($C47,P47*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C47,Q47*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>183379908</v>
       </c>
@@ -4681,11 +4478,11 @@
         <v>157.55556917742601</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H48:P48,$H$8:$P$8)</f>
         <v>391.51</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="7">
@@ -4718,62 +4515,48 @@
       <c r="Q48" s="7">
         <v>0</v>
       </c>
-      <c r="R48" s="7">
-        <v>0</v>
-      </c>
-      <c r="S48" s="7">
-        <v>0</v>
-      </c>
-      <c r="U48" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S48" s="12">
+        <f>MIN($C48,H48*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <f>MIN($C48,I48*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <f>MIN($C48,J48*J$8)</f>
+        <v>157.55556917742601</v>
       </c>
       <c r="V48">
-        <f t="shared" si="4"/>
+        <f>MIN($C48,K48*K$8)</f>
         <v>0</v>
       </c>
       <c r="W48">
-        <f t="shared" si="5"/>
-        <v>157.55556917742601</v>
+        <f>MIN($C48,L48*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X48">
-        <f t="shared" si="6"/>
+        <f>MIN($C48,M48*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="7"/>
+        <f>MIN($C48,N48*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="8"/>
+        <f>MIN($C48,O48*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="9"/>
+        <f>MIN($C48,P48*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C48,Q48*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>183404001</v>
       </c>
@@ -4781,11 +4564,11 @@
         <v>40.257602399741401</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H49:P49,$H$8:$P$8)</f>
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H49" s="7">
@@ -4818,62 +4601,48 @@
       <c r="Q49" s="7">
         <v>0</v>
       </c>
-      <c r="R49" s="7">
-        <v>0</v>
-      </c>
-      <c r="S49" s="7">
-        <v>0</v>
-      </c>
-      <c r="U49" s="13">
-        <f t="shared" si="3"/>
+      <c r="S49" s="12">
+        <f>MIN($C49,H49*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <f>MIN($C49,I49*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <f>MIN($C49,J49*J$8)</f>
         <v>0</v>
       </c>
       <c r="V49">
-        <f t="shared" si="4"/>
+        <f>MIN($C49,K49*K$8)</f>
         <v>0</v>
       </c>
       <c r="W49">
-        <f t="shared" si="5"/>
+        <f>MIN($C49,L49*L$8)</f>
         <v>0</v>
       </c>
       <c r="X49">
-        <f t="shared" si="6"/>
+        <f>MIN($C49,M49*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="7"/>
+        <f>MIN($C49,N49*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="8"/>
+        <f>MIN($C49,O49*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="9"/>
+        <f>MIN($C49,P49*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF49" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C49,Q49*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>183427508</v>
       </c>
@@ -4881,11 +4650,11 @@
         <v>40.257602399741401</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H50:P50,$H$8:$P$8)</f>
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H50" s="7">
@@ -4918,62 +4687,48 @@
       <c r="Q50" s="7">
         <v>0</v>
       </c>
-      <c r="R50" s="7">
-        <v>0</v>
-      </c>
-      <c r="S50" s="7">
-        <v>0</v>
-      </c>
-      <c r="U50" s="13">
-        <f t="shared" si="3"/>
+      <c r="S50" s="12">
+        <f>MIN($C50,H50*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f>MIN($C50,I50*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>MIN($C50,J50*J$8)</f>
         <v>0</v>
       </c>
       <c r="V50">
-        <f t="shared" si="4"/>
+        <f>MIN($C50,K50*K$8)</f>
         <v>0</v>
       </c>
       <c r="W50">
-        <f t="shared" si="5"/>
+        <f>MIN($C50,L50*L$8)</f>
         <v>0</v>
       </c>
       <c r="X50">
-        <f t="shared" si="6"/>
+        <f>MIN($C50,M50*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="7"/>
+        <f>MIN($C50,N50*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="8"/>
+        <f>MIN($C50,O50*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="9"/>
+        <f>MIN($C50,P50*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C50,Q50*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>183453007</v>
       </c>
@@ -4981,11 +4736,11 @@
         <v>40.257602399741401</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H51:P51,$H$8:$P$8)</f>
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H51" s="7">
@@ -5018,62 +4773,48 @@
       <c r="Q51" s="7">
         <v>0</v>
       </c>
-      <c r="R51" s="7">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7">
-        <v>0</v>
-      </c>
-      <c r="U51" s="13">
-        <f t="shared" si="3"/>
+      <c r="S51" s="12">
+        <f>MIN($C51,H51*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f>MIN($C51,I51*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f>MIN($C51,J51*J$8)</f>
         <v>0</v>
       </c>
       <c r="V51">
-        <f t="shared" si="4"/>
+        <f>MIN($C51,K51*K$8)</f>
         <v>0</v>
       </c>
       <c r="W51">
-        <f t="shared" si="5"/>
+        <f>MIN($C51,L51*L$8)</f>
         <v>0</v>
       </c>
       <c r="X51">
-        <f t="shared" si="6"/>
+        <f>MIN($C51,M51*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="7"/>
+        <f>MIN($C51,N51*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="8"/>
+        <f>MIN($C51,O51*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="9"/>
+        <f>MIN($C51,P51*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C51,Q51*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>183568207</v>
       </c>
@@ -5081,11 +4822,11 @@
         <v>1.5358333975418299</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H52:P52,$H$8:$P$8)</f>
         <v>66.81</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="7">
@@ -5118,62 +4859,48 @@
       <c r="Q52" s="7">
         <v>0</v>
       </c>
-      <c r="R52" s="7">
-        <v>0</v>
-      </c>
-      <c r="S52" s="7">
-        <v>0</v>
-      </c>
-      <c r="U52" s="13">
-        <f t="shared" si="3"/>
+      <c r="S52" s="12">
+        <f>MIN($C52,H52*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f>MIN($C52,I52*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <f>MIN($C52,J52*J$8)</f>
         <v>0</v>
       </c>
       <c r="V52">
-        <f t="shared" si="4"/>
+        <f>MIN($C52,K52*K$8)</f>
         <v>0</v>
       </c>
       <c r="W52">
-        <f t="shared" si="5"/>
+        <f>MIN($C52,L52*L$8)</f>
         <v>0</v>
       </c>
       <c r="X52">
-        <f t="shared" si="6"/>
+        <f>MIN($C52,M52*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>MIN($C52,N52*N$8)</f>
+        <v>1.5358333975418299</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="8"/>
+        <f>MIN($C52,O52*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="9"/>
-        <v>1.5358333975418299</v>
+        <f>MIN($C52,P52*P$8)</f>
+        <v>0</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C52,Q52*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>183569407</v>
       </c>
@@ -5181,11 +4908,11 @@
         <v>3.5621406912150402</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H53:P53,$H$8:$P$8)</f>
         <v>91.28</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53" s="7">
@@ -5218,62 +4945,48 @@
       <c r="Q53" s="7">
         <v>0</v>
       </c>
-      <c r="R53" s="7">
-        <v>0</v>
-      </c>
-      <c r="S53" s="7">
-        <v>0</v>
-      </c>
-      <c r="U53" s="13">
-        <f t="shared" si="3"/>
+      <c r="S53" s="12">
+        <f>MIN($C53,H53*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>MIN($C53,I53*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <f>MIN($C53,J53*J$8)</f>
         <v>0</v>
       </c>
       <c r="V53">
-        <f t="shared" si="4"/>
+        <f>MIN($C53,K53*K$8)</f>
         <v>0</v>
       </c>
       <c r="W53">
-        <f t="shared" si="5"/>
+        <f>MIN($C53,L53*L$8)</f>
         <v>0</v>
       </c>
       <c r="X53">
-        <f t="shared" si="6"/>
+        <f>MIN($C53,M53*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="7"/>
+        <f>MIN($C53,N53*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>MIN($C53,O53*O$8)</f>
+        <v>3.5621406912150402</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="9"/>
+        <f>MIN($C53,P53*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="10"/>
-        <v>3.5621406912150402</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF53" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C53,Q53*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>183653007</v>
       </c>
@@ -5281,11 +4994,11 @@
         <v>3.5621406912150402</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H54:P54,$H$8:$P$8)</f>
         <v>89.56</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="7">
@@ -5318,62 +5031,48 @@
       <c r="Q54" s="7">
         <v>0</v>
       </c>
-      <c r="R54" s="7">
-        <v>0</v>
-      </c>
-      <c r="S54" s="7">
-        <v>0</v>
-      </c>
-      <c r="U54" s="13">
-        <f t="shared" si="3"/>
+      <c r="S54" s="12">
+        <f>MIN($C54,H54*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <f>MIN($C54,I54*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <f>MIN($C54,J54*J$8)</f>
         <v>0</v>
       </c>
       <c r="V54">
-        <f t="shared" si="4"/>
+        <f>MIN($C54,K54*K$8)</f>
         <v>0</v>
       </c>
       <c r="W54">
-        <f t="shared" si="5"/>
+        <f>MIN($C54,L54*L$8)</f>
         <v>0</v>
       </c>
       <c r="X54">
-        <f t="shared" si="6"/>
+        <f>MIN($C54,M54*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="7"/>
+        <f>MIN($C54,N54*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>MIN($C54,O54*O$8)</f>
+        <v>3.5621406912150402</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="9"/>
+        <f>MIN($C54,P54*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="10"/>
-        <v>3.5621406912150402</v>
-      </c>
-      <c r="AC54">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF54" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C54,Q54*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>183654107</v>
       </c>
@@ -5381,11 +5080,11 @@
         <v>3.5621406912150402</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H55:P55,$H$8:$P$8)</f>
         <v>91.56</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="7">
@@ -5418,62 +5117,48 @@
       <c r="Q55" s="7">
         <v>0</v>
       </c>
-      <c r="R55" s="7">
-        <v>0</v>
-      </c>
-      <c r="S55" s="7">
-        <v>0</v>
-      </c>
-      <c r="U55" s="13">
-        <f t="shared" si="3"/>
+      <c r="S55" s="12">
+        <f>MIN($C55,H55*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f>MIN($C55,I55*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <f>MIN($C55,J55*J$8)</f>
         <v>0</v>
       </c>
       <c r="V55">
-        <f t="shared" si="4"/>
+        <f>MIN($C55,K55*K$8)</f>
         <v>0</v>
       </c>
       <c r="W55">
-        <f t="shared" si="5"/>
+        <f>MIN($C55,L55*L$8)</f>
         <v>0</v>
       </c>
       <c r="X55">
-        <f t="shared" si="6"/>
+        <f>MIN($C55,M55*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="7"/>
+        <f>MIN($C55,N55*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>MIN($C55,O55*O$8)</f>
+        <v>3.5621406912150402</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="9"/>
+        <f>MIN($C55,P55*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="10"/>
-        <v>3.5621406912150402</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF55" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C55,Q55*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>183654607</v>
       </c>
@@ -5481,11 +5166,11 @@
         <v>3.5621406912150402</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H56:P56,$H$8:$P$8)</f>
         <v>92.99</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" s="7">
@@ -5518,62 +5203,48 @@
       <c r="Q56" s="7">
         <v>0</v>
       </c>
-      <c r="R56" s="7">
-        <v>0</v>
-      </c>
-      <c r="S56" s="7">
-        <v>0</v>
-      </c>
-      <c r="U56" s="13">
-        <f t="shared" si="3"/>
+      <c r="S56" s="12">
+        <f>MIN($C56,H56*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f>MIN($C56,I56*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f>MIN($C56,J56*J$8)</f>
         <v>0</v>
       </c>
       <c r="V56">
-        <f t="shared" si="4"/>
+        <f>MIN($C56,K56*K$8)</f>
         <v>0</v>
       </c>
       <c r="W56">
-        <f t="shared" si="5"/>
+        <f>MIN($C56,L56*L$8)</f>
         <v>0</v>
       </c>
       <c r="X56">
-        <f t="shared" si="6"/>
+        <f>MIN($C56,M56*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="7"/>
+        <f>MIN($C56,N56*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>MIN($C56,O56*O$8)</f>
+        <v>3.5621406912150402</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="9"/>
+        <f>MIN($C56,P56*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="10"/>
-        <v>3.5621406912150402</v>
-      </c>
-      <c r="AC56">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF56" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C56,Q56*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>183863902</v>
       </c>
@@ -5581,11 +5252,11 @@
         <v>91.428509970546898</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H57:P57,$H$8:$P$8)</f>
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H57" s="7">
@@ -5618,62 +5289,48 @@
       <c r="Q57" s="7">
         <v>0</v>
       </c>
-      <c r="R57" s="7">
-        <v>0</v>
-      </c>
-      <c r="S57" s="7">
-        <v>0</v>
-      </c>
-      <c r="U57" s="13">
-        <f t="shared" si="3"/>
+      <c r="S57" s="12">
+        <f>MIN($C57,H57*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f>MIN($C57,I57*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <f>MIN($C57,J57*J$8)</f>
         <v>0</v>
       </c>
       <c r="V57">
-        <f t="shared" si="4"/>
+        <f>MIN($C57,K57*K$8)</f>
         <v>0</v>
       </c>
       <c r="W57">
-        <f t="shared" si="5"/>
+        <f>MIN($C57,L57*L$8)</f>
         <v>0</v>
       </c>
       <c r="X57">
-        <f t="shared" si="6"/>
+        <f>MIN($C57,M57*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="7"/>
+        <f>MIN($C57,N57*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="8"/>
+        <f>MIN($C57,O57*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="9"/>
+        <f>MIN($C57,P57*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C57,Q57*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>183935202</v>
       </c>
@@ -5681,11 +5338,11 @@
         <v>29.411306451091701</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="15"/>
-        <v>67.02</v>
+        <f>SUMPRODUCT(H58:P58,$H$8:$P$8)</f>
+        <v>118.44999999999999</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H58" s="7">
@@ -5713,67 +5370,54 @@
         <v>0</v>
       </c>
       <c r="P58" s="7">
-        <v>67.02</v>
+        <f>67.02+51.43</f>
+        <v>118.44999999999999</v>
       </c>
       <c r="Q58" s="7">
-        <v>51.43</v>
-      </c>
-      <c r="R58" s="7">
         <v>20.57</v>
       </c>
-      <c r="S58" s="7">
-        <v>0</v>
-      </c>
-      <c r="U58" s="13">
-        <f t="shared" si="3"/>
+      <c r="S58" s="12">
+        <f>MIN($C58,H58*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f>MIN($C58,I58*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f>MIN($C58,J58*J$8)</f>
         <v>0</v>
       </c>
       <c r="V58">
-        <f t="shared" si="4"/>
+        <f>MIN($C58,K58*K$8)</f>
         <v>0</v>
       </c>
       <c r="W58">
-        <f t="shared" si="5"/>
+        <f>MIN($C58,L58*L$8)</f>
         <v>0</v>
       </c>
       <c r="X58">
-        <f t="shared" si="6"/>
+        <f>MIN($C58,M58*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="7"/>
+        <f>MIN($C58,N58*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="8"/>
+        <f>MIN($C58,O58*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MIN($C58,P58*P$8)</f>
+        <v>29.411306451091701</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" si="11"/>
-        <v>29.411306451091701</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C58,Q58*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>183936502</v>
       </c>
@@ -5781,8 +5425,8 @@
         <v>77.728620316402996</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="15"/>
-        <v>166.76</v>
+        <f>SUMPRODUCT(H59:P59,$H$8:$P$8)</f>
+        <v>226.76</v>
       </c>
       <c r="E59" s="1">
         <f>IF(C59&gt;D59,1,0)</f>
@@ -5813,67 +5457,54 @@
         <v>0</v>
       </c>
       <c r="P59" s="7">
-        <v>166.76</v>
+        <f>166.76+60</f>
+        <v>226.76</v>
       </c>
       <c r="Q59" s="7">
-        <v>60</v>
-      </c>
-      <c r="R59" s="7">
         <v>20.57</v>
       </c>
-      <c r="S59" s="7">
-        <v>0</v>
-      </c>
-      <c r="U59" s="13">
-        <f t="shared" si="3"/>
+      <c r="S59" s="12">
+        <f>MIN($C59,H59*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f>MIN($C59,I59*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f>MIN($C59,J59*J$8)</f>
         <v>0</v>
       </c>
       <c r="V59">
-        <f t="shared" si="4"/>
+        <f>MIN($C59,K59*K$8)</f>
         <v>0</v>
       </c>
       <c r="W59">
-        <f t="shared" si="5"/>
+        <f>MIN($C59,L59*L$8)</f>
         <v>0</v>
       </c>
       <c r="X59">
-        <f t="shared" si="6"/>
+        <f>MIN($C59,M59*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="7"/>
+        <f>MIN($C59,N59*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="8"/>
+        <f>MIN($C59,O59*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MIN($C59,P59*P$8)</f>
+        <v>77.728620316402996</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" si="11"/>
-        <v>77.728620316402996</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF59" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C59,Q59*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>183936702</v>
       </c>
@@ -5881,11 +5512,11 @@
         <v>56.609692840543303</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H60:P60,$H$8:$P$8)</f>
         <v>105.09</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H60" s="7">
@@ -5918,62 +5549,48 @@
       <c r="Q60" s="7">
         <v>0</v>
       </c>
-      <c r="R60" s="7">
-        <v>0</v>
-      </c>
-      <c r="S60" s="7">
-        <v>0</v>
-      </c>
-      <c r="U60" s="13">
-        <f t="shared" si="3"/>
+      <c r="S60" s="12">
+        <f>MIN($C60,H60*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <f>MIN($C60,I60*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f>MIN($C60,J60*J$8)</f>
         <v>0</v>
       </c>
       <c r="V60">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C60,K60*K$8)</f>
+        <v>56.609692840543303</v>
       </c>
       <c r="W60">
-        <f t="shared" si="5"/>
+        <f>MIN($C60,L60*L$8)</f>
         <v>0</v>
       </c>
       <c r="X60">
-        <f t="shared" si="6"/>
-        <v>56.609692840543303</v>
+        <f>MIN($C60,M60*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="7"/>
+        <f>MIN($C60,N60*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="8"/>
+        <f>MIN($C60,O60*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="9"/>
+        <f>MIN($C60,P60*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF60" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C60,Q60*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>183937002</v>
       </c>
@@ -5981,11 +5598,11 @@
         <v>30.512136134067301</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="15"/>
-        <v>61.04</v>
+        <f>SUMPRODUCT(H61:P61,$H$8:$P$8)</f>
+        <v>72.289999999999992</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H61" s="7">
@@ -5995,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="7">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="K61" s="7">
         <v>61.04</v>
@@ -6018,62 +5635,48 @@
       <c r="Q61" s="7">
         <v>0</v>
       </c>
-      <c r="R61" s="7">
-        <v>0</v>
-      </c>
-      <c r="S61" s="7">
+      <c r="S61" s="12">
+        <f>MIN($C61,H61*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f>MIN($C61,I61*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ref="U61:U66" si="2">MIN($C61,J61*J$8)</f>
         <v>11.25</v>
       </c>
-      <c r="U61" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="V61">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C61,K61*K$8)</f>
+        <v>30.512136134067301</v>
       </c>
       <c r="W61">
-        <f t="shared" si="5"/>
+        <f>MIN($C61,L61*L$8)</f>
         <v>0</v>
       </c>
       <c r="X61">
-        <f t="shared" si="6"/>
-        <v>30.512136134067301</v>
+        <f>MIN($C61,M61*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="7"/>
+        <f>MIN($C61,N61*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="8"/>
+        <f>MIN($C61,O61*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="9"/>
+        <f>MIN($C61,P61*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF61" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C61,Q61*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>183938002</v>
       </c>
@@ -6081,11 +5684,11 @@
         <v>15.5116790609815</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H62:P62,$H$8:$P$8)</f>
         <v>58.35</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H62" s="7">
@@ -6118,62 +5721,48 @@
       <c r="Q62" s="7">
         <v>0</v>
       </c>
-      <c r="R62" s="7">
-        <v>0</v>
-      </c>
-      <c r="S62" s="7">
-        <v>0</v>
-      </c>
-      <c r="U62" s="13">
-        <f t="shared" si="3"/>
+      <c r="S62" s="12">
+        <f>MIN($C62,H62*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f>MIN($C62,I62*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V62">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C62,K62*K$8)</f>
+        <v>15.5116790609815</v>
       </c>
       <c r="W62">
-        <f t="shared" si="5"/>
+        <f>MIN($C62,L62*L$8)</f>
         <v>0</v>
       </c>
       <c r="X62">
-        <f t="shared" si="6"/>
-        <v>15.5116790609815</v>
+        <f>MIN($C62,M62*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="7"/>
+        <f>MIN($C62,N62*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="8"/>
+        <f>MIN($C62,O62*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="9"/>
+        <f>MIN($C62,P62*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C62,Q62*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>183941402</v>
       </c>
@@ -6181,11 +5770,11 @@
         <v>93.668821760473193</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H63:P63,$H$8:$P$8)</f>
         <v>157.78</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H63" s="7">
@@ -6218,62 +5807,48 @@
       <c r="Q63" s="7">
         <v>0</v>
       </c>
-      <c r="R63" s="7">
-        <v>0</v>
-      </c>
-      <c r="S63" s="7">
-        <v>0</v>
-      </c>
-      <c r="U63" s="13">
-        <f t="shared" si="3"/>
+      <c r="S63" s="12">
+        <f>MIN($C63,H63*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <f>MIN($C63,I63*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V63">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C63,K63*K$8)</f>
+        <v>93.668821760473193</v>
       </c>
       <c r="W63">
-        <f t="shared" si="5"/>
+        <f>MIN($C63,L63*L$8)</f>
         <v>0</v>
       </c>
       <c r="X63">
-        <f t="shared" si="6"/>
-        <v>93.668821760473193</v>
+        <f>MIN($C63,M63*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="7"/>
+        <f>MIN($C63,N63*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="8"/>
+        <f>MIN($C63,O63*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="9"/>
+        <f>MIN($C63,P63*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C63,Q63*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>183941502</v>
       </c>
@@ -6281,11 +5856,11 @@
         <v>5.3073414816011502</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H64:P64,$H$8:$P$8)</f>
         <v>58.14</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H64" s="7">
@@ -6318,62 +5893,48 @@
       <c r="Q64" s="7">
         <v>0</v>
       </c>
-      <c r="R64" s="7">
-        <v>0</v>
-      </c>
-      <c r="S64" s="7">
-        <v>0</v>
-      </c>
-      <c r="U64" s="13">
-        <f t="shared" si="3"/>
+      <c r="S64" s="12">
+        <f>MIN($C64,H64*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <f>MIN($C64,I64*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C64,K64*K$8)</f>
+        <v>5.3073414816011502</v>
       </c>
       <c r="W64">
-        <f t="shared" si="5"/>
+        <f>MIN($C64,L64*L$8)</f>
         <v>0</v>
       </c>
       <c r="X64">
-        <f t="shared" si="6"/>
-        <v>5.3073414816011502</v>
+        <f>MIN($C64,M64*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="7"/>
+        <f>MIN($C64,N64*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="8"/>
+        <f>MIN($C64,O64*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="9"/>
+        <f>MIN($C64,P64*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF64" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C64,Q64*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>183945102</v>
       </c>
@@ -6381,11 +5942,11 @@
         <v>70.8869647619521</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="15"/>
-        <v>105.09</v>
+        <f>SUMPRODUCT(H65:P65,$H$8:$P$8)</f>
+        <v>177.09</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H65" s="7">
@@ -6395,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K65" s="7">
         <v>105.09</v>
@@ -6418,62 +5979,48 @@
       <c r="Q65" s="7">
         <v>0</v>
       </c>
-      <c r="R65" s="7">
-        <v>0</v>
-      </c>
-      <c r="S65" s="7">
-        <v>72</v>
-      </c>
-      <c r="U65" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S65" s="12">
+        <f>MIN($C65,H65*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <f>MIN($C65,I65*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="2"/>
+        <v>70.8869647619521</v>
       </c>
       <c r="V65">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MIN($C65,K65*K$8)</f>
+        <v>70.8869647619521</v>
       </c>
       <c r="W65">
-        <f t="shared" si="5"/>
+        <f>MIN($C65,L65*L$8)</f>
         <v>0</v>
       </c>
       <c r="X65">
-        <f t="shared" si="6"/>
-        <v>70.8869647619521</v>
+        <f>MIN($C65,M65*M$8)</f>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <f t="shared" si="7"/>
+        <f>MIN($C65,N65*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="8"/>
+        <f>MIN($C65,O65*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="9"/>
+        <f>MIN($C65,P65*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF65" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C65,Q65*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>183947402</v>
       </c>
@@ -6481,11 +6028,11 @@
         <v>11.213112402599799</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H66:P66,$H$8:$P$8)</f>
         <v>43.81</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H66" s="7">
@@ -6518,62 +6065,48 @@
       <c r="Q66" s="7">
         <v>0</v>
       </c>
-      <c r="R66" s="7">
-        <v>0</v>
-      </c>
-      <c r="S66" s="7">
-        <v>0</v>
-      </c>
-      <c r="U66" s="13">
-        <f t="shared" si="3"/>
+      <c r="S66" s="12">
+        <f>MIN($C66,H66*H$8)</f>
         <v>11.213112402599799</v>
       </c>
+      <c r="T66">
+        <f>MIN($C66,I66*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="V66">
-        <f t="shared" si="4"/>
+        <f>MIN($C66,K66*K$8)</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f t="shared" si="5"/>
+        <f>MIN($C66,L66*L$8)</f>
         <v>0</v>
       </c>
       <c r="X66">
-        <f t="shared" si="6"/>
+        <f>MIN($C66,M66*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y66">
-        <f t="shared" si="7"/>
+        <f>MIN($C66,N66*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="8"/>
+        <f>MIN($C66,O66*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="9"/>
+        <f>MIN($C66,P66*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF66" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C66,Q66*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>183949102</v>
       </c>
@@ -6581,11 +6114,11 @@
         <v>8.2892123653174501</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H67:P67,$H$8:$P$8)</f>
         <v>98.5</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H67" s="7">
@@ -6618,62 +6151,48 @@
       <c r="Q67" s="7">
         <v>0</v>
       </c>
-      <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7">
-        <v>0</v>
-      </c>
-      <c r="U67" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S67" s="12">
+        <f>MIN($C67,H67*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f>MIN($C67,I67*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <f>MIN($C67,J67*J$8)</f>
+        <v>8.2892123653174501</v>
       </c>
       <c r="V67">
-        <f t="shared" si="4"/>
+        <f>MIN($C67,K67*K$8)</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="shared" si="5"/>
-        <v>8.2892123653174501</v>
+        <f>MIN($C67,L67*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X67">
-        <f t="shared" si="6"/>
+        <f>MIN($C67,M67*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y67">
-        <f t="shared" si="7"/>
+        <f>MIN($C67,N67*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="8"/>
+        <f>MIN($C67,O67*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="9"/>
+        <f>MIN($C67,P67*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD67">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE67">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF67" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C67,Q67*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>183950002</v>
       </c>
@@ -6681,11 +6200,11 @@
         <v>83.627275887009503</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H68:P68,$H$8:$P$8)</f>
         <v>256.69</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H68" s="7">
@@ -6718,62 +6237,48 @@
       <c r="Q68" s="7">
         <v>0</v>
       </c>
-      <c r="R68" s="7">
-        <v>0</v>
-      </c>
-      <c r="S68" s="7">
-        <v>0</v>
-      </c>
-      <c r="U68" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S68" s="12">
+        <f>MIN($C68,H68*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <f>MIN($C68,I68*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <f>MIN($C68,J68*J$8)</f>
+        <v>83.627275887009503</v>
       </c>
       <c r="V68">
-        <f t="shared" si="4"/>
+        <f>MIN($C68,K68*K$8)</f>
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="shared" si="5"/>
-        <v>83.627275887009503</v>
+        <f>MIN($C68,L68*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X68">
-        <f t="shared" si="6"/>
+        <f>MIN($C68,M68*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y68">
-        <f t="shared" si="7"/>
+        <f>MIN($C68,N68*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="8"/>
+        <f>MIN($C68,O68*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="9"/>
+        <f>MIN($C68,P68*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD68">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF68" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C68,Q68*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>183950202</v>
       </c>
@@ -6781,11 +6286,11 @@
         <v>108.405374416841</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H69:P69,$H$8:$P$8)</f>
         <v>264.79000000000002</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H69" s="7">
@@ -6818,62 +6323,48 @@
       <c r="Q69" s="7">
         <v>0</v>
       </c>
-      <c r="R69" s="7">
-        <v>0</v>
-      </c>
-      <c r="S69" s="7">
-        <v>0</v>
-      </c>
-      <c r="U69" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S69" s="12">
+        <f>MIN($C69,H69*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f>MIN($C69,I69*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <f>MIN($C69,J69*J$8)</f>
+        <v>108.405374416841</v>
       </c>
       <c r="V69">
-        <f t="shared" si="4"/>
+        <f>MIN($C69,K69*K$8)</f>
         <v>0</v>
       </c>
       <c r="W69">
-        <f t="shared" si="5"/>
-        <v>108.405374416841</v>
+        <f>MIN($C69,L69*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X69">
-        <f t="shared" si="6"/>
+        <f>MIN($C69,M69*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="7"/>
+        <f>MIN($C69,N69*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="8"/>
+        <f>MIN($C69,O69*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="9"/>
+        <f>MIN($C69,P69*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD69">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF69" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C69,Q69*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>183950902</v>
       </c>
@@ -6881,11 +6372,11 @@
         <v>138.82255387177301</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H70:P70,$H$8:$P$8)</f>
         <v>328.1</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H70" s="7">
@@ -6918,62 +6409,48 @@
       <c r="Q70" s="7">
         <v>0</v>
       </c>
-      <c r="R70" s="7">
-        <v>0</v>
-      </c>
-      <c r="S70" s="7">
-        <v>0</v>
-      </c>
-      <c r="U70" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S70" s="12">
+        <f>MIN($C70,H70*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f>MIN($C70,I70*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <f>MIN($C70,J70*J$8)</f>
+        <v>138.82255387177301</v>
       </c>
       <c r="V70">
-        <f t="shared" si="4"/>
+        <f>MIN($C70,K70*K$8)</f>
         <v>0</v>
       </c>
       <c r="W70">
-        <f t="shared" si="5"/>
-        <v>138.82255387177301</v>
+        <f>MIN($C70,L70*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X70">
-        <f t="shared" si="6"/>
+        <f>MIN($C70,M70*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="7"/>
+        <f>MIN($C70,N70*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="8"/>
+        <f>MIN($C70,O70*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="9"/>
+        <f>MIN($C70,P70*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD70">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF70" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C70,Q70*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>183952302</v>
       </c>
@@ -6981,11 +6458,11 @@
         <v>98.130980498837999</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H71:P71,$H$8:$P$8)</f>
         <v>237.36</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H71" s="7">
@@ -7018,62 +6495,48 @@
       <c r="Q71" s="7">
         <v>0</v>
       </c>
-      <c r="R71" s="7">
-        <v>0</v>
-      </c>
-      <c r="S71" s="7">
-        <v>0</v>
-      </c>
-      <c r="U71" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S71" s="12">
+        <f>MIN($C71,H71*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f>MIN($C71,I71*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <f>MIN($C71,J71*J$8)</f>
+        <v>98.130980498837999</v>
       </c>
       <c r="V71">
-        <f t="shared" si="4"/>
+        <f>MIN($C71,K71*K$8)</f>
         <v>0</v>
       </c>
       <c r="W71">
-        <f t="shared" si="5"/>
-        <v>98.130980498837999</v>
+        <f>MIN($C71,L71*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X71">
-        <f t="shared" si="6"/>
+        <f>MIN($C71,M71*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="7"/>
+        <f>MIN($C71,N71*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="8"/>
+        <f>MIN($C71,O71*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="9"/>
+        <f>MIN($C71,P71*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD71">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF71" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C71,Q71*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>183952502</v>
       </c>
@@ -7081,11 +6544,11 @@
         <v>27.022227670970601</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="15"/>
+        <f>SUMPRODUCT(H72:P72,$H$8:$P$8)</f>
         <v>115.51</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H72" s="7">
@@ -7118,62 +6581,48 @@
       <c r="Q72" s="7">
         <v>0</v>
       </c>
-      <c r="R72" s="7">
-        <v>0</v>
-      </c>
-      <c r="S72" s="7">
-        <v>0</v>
-      </c>
-      <c r="U72" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S72" s="12">
+        <f>MIN($C72,H72*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <f>MIN($C72,I72*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <f>MIN($C72,J72*J$8)</f>
+        <v>27.022227670970601</v>
       </c>
       <c r="V72">
-        <f t="shared" si="4"/>
+        <f>MIN($C72,K72*K$8)</f>
         <v>0</v>
       </c>
       <c r="W72">
-        <f t="shared" si="5"/>
-        <v>27.022227670970601</v>
+        <f>MIN($C72,L72*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X72">
-        <f t="shared" si="6"/>
+        <f>MIN($C72,M72*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="7"/>
+        <f>MIN($C72,N72*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="8"/>
+        <f>MIN($C72,O72*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="9"/>
+        <f>MIN($C72,P72*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF72" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C72,Q72*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>183953102</v>
       </c>
@@ -7181,11 +6630,11 @@
         <v>70.533341506455997</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D73:D80" si="16">SUMPRODUCT(H73:Q73,$H$8:$Q$8)</f>
+        <f>SUMPRODUCT(H73:P73,$H$8:$P$8)</f>
         <v>173.79</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H73" s="7">
@@ -7218,62 +6667,48 @@
       <c r="Q73" s="7">
         <v>0</v>
       </c>
-      <c r="R73" s="7">
-        <v>0</v>
-      </c>
-      <c r="S73" s="7">
-        <v>0</v>
-      </c>
-      <c r="U73" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="S73" s="12">
+        <f>MIN($C73,H73*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f>MIN($C73,I73*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <f>MIN($C73,J73*J$8)</f>
+        <v>70.533341506455997</v>
       </c>
       <c r="V73">
-        <f t="shared" si="4"/>
+        <f>MIN($C73,K73*K$8)</f>
         <v>0</v>
       </c>
       <c r="W73">
-        <f t="shared" si="5"/>
-        <v>70.533341506455997</v>
+        <f>MIN($C73,L73*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X73">
-        <f t="shared" si="6"/>
+        <f>MIN($C73,M73*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="7"/>
+        <f>MIN($C73,N73*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="8"/>
+        <f>MIN($C73,O73*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="9"/>
+        <f>MIN($C73,P73*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD73">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE73">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF73" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C73,Q73*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>183953502</v>
       </c>
@@ -7281,11 +6716,11 @@
         <v>56.029636894627501</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H74:P74,$H$8:$P$8)</f>
         <v>165.36</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" ref="E74:E80" si="17">IF(C74&gt;D74,1,0)</f>
+        <f t="shared" ref="E74:E80" si="3">IF(C74&gt;D74,1,0)</f>
         <v>0</v>
       </c>
       <c r="H74" s="7">
@@ -7318,62 +6753,48 @@
       <c r="Q74" s="7">
         <v>0</v>
       </c>
-      <c r="R74" s="7">
-        <v>0</v>
-      </c>
-      <c r="S74" s="7">
-        <v>0</v>
-      </c>
-      <c r="U74" s="13">
-        <f t="shared" ref="U74:U80" si="18">MIN($C74,H74*H$8)</f>
-        <v>0</v>
+      <c r="S74" s="12">
+        <f>MIN($C74,H74*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <f>MIN($C74,I74*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <f>MIN($C74,J74*J$8)</f>
+        <v>56.029636894627501</v>
       </c>
       <c r="V74">
-        <f t="shared" ref="V74:V80" si="19">MIN($C74,I74*I$8)</f>
+        <f>MIN($C74,K74*K$8)</f>
         <v>0</v>
       </c>
       <c r="W74">
-        <f t="shared" ref="W74:W80" si="20">MIN($C74,J74*J$8)</f>
-        <v>56.029636894627501</v>
+        <f>MIN($C74,L74*L$8)</f>
+        <v>0</v>
       </c>
       <c r="X74">
-        <f t="shared" ref="X74:X80" si="21">MIN($C74,K74*K$8)</f>
+        <f>MIN($C74,M74*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y74">
-        <f t="shared" ref="Y74:Y80" si="22">MIN($C74,L74*L$8)</f>
+        <f>MIN($C74,N74*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z74">
-        <f t="shared" ref="Z74:Z80" si="23">MIN($C74,M74*M$8)</f>
+        <f>MIN($C74,O74*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA74">
-        <f t="shared" ref="AA74:AA80" si="24">MIN($C74,N74*N$8)</f>
+        <f>MIN($C74,P74*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB74">
-        <f t="shared" ref="AB74:AB80" si="25">MIN($C74,O74*O$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AC74">
-        <f t="shared" ref="AC74:AC80" si="26">MIN($C74,P74*P$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AD74">
-        <f t="shared" ref="AD74:AD80" si="27">MIN($C74,Q74*Q$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <f t="shared" ref="AE74:AE80" si="28">MIN($C74,R74*R$8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF74" s="14">
-        <f t="shared" ref="AF74:AF80" si="29">MIN($C74,S74*S$8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C74,Q74*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>183954602</v>
       </c>
@@ -7381,11 +6802,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H75:P75,$H$8:$P$8)</f>
         <v>48.95</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H75" s="7">
@@ -7418,62 +6839,48 @@
       <c r="Q75" s="7">
         <v>0</v>
       </c>
-      <c r="R75" s="7">
-        <v>0</v>
-      </c>
-      <c r="S75" s="7">
-        <v>0</v>
-      </c>
-      <c r="U75" s="13">
-        <f t="shared" si="18"/>
+      <c r="S75" s="12">
+        <f>MIN($C75,H75*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T75">
+        <f>MIN($C75,I75*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f>MIN($C75,J75*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V75">
-        <f t="shared" si="19"/>
+        <f>MIN($C75,K75*K$8)</f>
         <v>0</v>
       </c>
       <c r="W75">
-        <f t="shared" si="20"/>
+        <f>MIN($C75,L75*L$8)</f>
         <v>0</v>
       </c>
       <c r="X75">
-        <f t="shared" si="21"/>
+        <f>MIN($C75,M75*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y75">
-        <f t="shared" si="22"/>
+        <f>MIN($C75,N75*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="23"/>
+        <f>MIN($C75,O75*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="24"/>
+        <f>MIN($C75,P75*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB75">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF75" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C75,Q75*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>183955102</v>
       </c>
@@ -7481,11 +6888,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H76:P76,$H$8:$P$8)</f>
         <v>50.66</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H76" s="7">
@@ -7518,62 +6925,48 @@
       <c r="Q76" s="7">
         <v>0</v>
       </c>
-      <c r="R76" s="7">
-        <v>0</v>
-      </c>
-      <c r="S76" s="7">
-        <v>0</v>
-      </c>
-      <c r="U76" s="13">
-        <f t="shared" si="18"/>
+      <c r="S76" s="12">
+        <f>MIN($C76,H76*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T76">
+        <f>MIN($C76,I76*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f>MIN($C76,J76*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V76">
-        <f t="shared" si="19"/>
+        <f>MIN($C76,K76*K$8)</f>
         <v>0</v>
       </c>
       <c r="W76">
-        <f t="shared" si="20"/>
+        <f>MIN($C76,L76*L$8)</f>
         <v>0</v>
       </c>
       <c r="X76">
-        <f t="shared" si="21"/>
+        <f>MIN($C76,M76*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y76">
-        <f t="shared" si="22"/>
+        <f>MIN($C76,N76*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="23"/>
+        <f>MIN($C76,O76*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="24"/>
+        <f>MIN($C76,P76*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB76">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF76" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C76,Q76*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>183955402</v>
       </c>
@@ -7581,11 +6974,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H77:P77,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H77" s="7">
@@ -7618,62 +7011,48 @@
       <c r="Q77" s="7">
         <v>0</v>
       </c>
-      <c r="R77" s="7">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7">
-        <v>0</v>
-      </c>
-      <c r="U77" s="13">
-        <f t="shared" si="18"/>
+      <c r="S77" s="12">
+        <f>MIN($C77,H77*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T77">
+        <f>MIN($C77,I77*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f>MIN($C77,J77*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V77">
-        <f t="shared" si="19"/>
+        <f>MIN($C77,K77*K$8)</f>
         <v>0</v>
       </c>
       <c r="W77">
-        <f t="shared" si="20"/>
+        <f>MIN($C77,L77*L$8)</f>
         <v>0</v>
       </c>
       <c r="X77">
-        <f t="shared" si="21"/>
+        <f>MIN($C77,M77*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="22"/>
+        <f>MIN($C77,N77*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="23"/>
+        <f>MIN($C77,O77*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="24"/>
+        <f>MIN($C77,P77*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB77">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF77" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C77,Q77*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>183955702</v>
       </c>
@@ -7681,11 +7060,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H78:P78,$H$8:$P$8)</f>
         <v>40.369999999999997</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H78" s="7">
@@ -7718,62 +7097,48 @@
       <c r="Q78" s="7">
         <v>0</v>
       </c>
-      <c r="R78" s="7">
-        <v>0</v>
-      </c>
-      <c r="S78" s="7">
-        <v>0</v>
-      </c>
-      <c r="U78" s="13">
-        <f t="shared" si="18"/>
+      <c r="S78" s="12">
+        <f>MIN($C78,H78*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T78">
+        <f>MIN($C78,I78*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f>MIN($C78,J78*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V78">
-        <f t="shared" si="19"/>
+        <f>MIN($C78,K78*K$8)</f>
         <v>0</v>
       </c>
       <c r="W78">
-        <f t="shared" si="20"/>
+        <f>MIN($C78,L78*L$8)</f>
         <v>0</v>
       </c>
       <c r="X78">
-        <f t="shared" si="21"/>
+        <f>MIN($C78,M78*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y78">
-        <f t="shared" si="22"/>
+        <f>MIN($C78,N78*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="23"/>
+        <f>MIN($C78,O78*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="24"/>
+        <f>MIN($C78,P78*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB78">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF78" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C78,Q78*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>183956102</v>
       </c>
@@ -7781,11 +7146,11 @@
         <v>12.2133909055886</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H79:P79,$H$8:$P$8)</f>
         <v>38.659999999999997</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H79" s="7">
@@ -7818,62 +7183,48 @@
       <c r="Q79" s="7">
         <v>0</v>
       </c>
-      <c r="R79" s="7">
-        <v>0</v>
-      </c>
-      <c r="S79" s="7">
-        <v>0</v>
-      </c>
-      <c r="U79" s="13">
-        <f t="shared" si="18"/>
+      <c r="S79" s="12">
+        <f>MIN($C79,H79*H$8)</f>
         <v>12.2133909055886</v>
       </c>
+      <c r="T79">
+        <f>MIN($C79,I79*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f>MIN($C79,J79*J$8)</f>
+        <v>0</v>
+      </c>
       <c r="V79">
-        <f t="shared" si="19"/>
+        <f>MIN($C79,K79*K$8)</f>
         <v>0</v>
       </c>
       <c r="W79">
-        <f t="shared" si="20"/>
+        <f>MIN($C79,L79*L$8)</f>
         <v>0</v>
       </c>
       <c r="X79">
-        <f t="shared" si="21"/>
+        <f>MIN($C79,M79*M$8)</f>
         <v>0</v>
       </c>
       <c r="Y79">
-        <f t="shared" si="22"/>
+        <f>MIN($C79,N79*N$8)</f>
         <v>0</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="23"/>
+        <f>MIN($C79,O79*O$8)</f>
         <v>0</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="24"/>
+        <f>MIN($C79,P79*P$8)</f>
         <v>0</v>
       </c>
       <c r="AB79">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF79" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
+        <f>MIN($C79,Q79*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="2">
         <v>183977702</v>
       </c>
@@ -7881,11 +7232,11 @@
         <v>15.5116790609815</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="16"/>
+        <f>SUMPRODUCT(H80:P80,$H$8:$P$8)</f>
         <v>63.49</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H80" s="7">
@@ -7918,62 +7269,48 @@
       <c r="Q80" s="7">
         <v>0</v>
       </c>
-      <c r="R80" s="7">
-        <v>0</v>
-      </c>
-      <c r="S80" s="7">
-        <v>0</v>
-      </c>
-      <c r="U80" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="16">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="16">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="16">
-        <f t="shared" si="21"/>
+      <c r="S80" s="12">
+        <f>MIN($C80,H80*H$8)</f>
+        <v>0</v>
+      </c>
+      <c r="T80" s="19">
+        <f>MIN($C80,I80*I$8)</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="19">
+        <f>MIN($C80,J80*J$8)</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="19">
+        <f>MIN($C80,K80*K$8)</f>
         <v>15.5116790609815</v>
       </c>
-      <c r="Y80" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AC80" s="16">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE80" s="16">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AF80" s="17">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:32" x14ac:dyDescent="0.3">
+      <c r="W80" s="19">
+        <f>MIN($C80,L80*L$8)</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="19">
+        <f>MIN($C80,M80*M$8)</f>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="19">
+        <f>MIN($C80,N80*N$8)</f>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="19">
+        <f>MIN($C80,O80*O$8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="19">
+        <f>MIN($C80,P80*P$8)</f>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="19">
+        <f>MIN($C80,Q80*Q$8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:28" x14ac:dyDescent="0.3">
       <c r="D81" s="5" t="s">
         <v>6</v>
       </c>
@@ -7981,210 +7318,309 @@
         <f>SUM(E9:E80)</f>
         <v>4</v>
       </c>
-      <c r="T81" s="3" t="s">
+      <c r="R81" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="24">
+        <v>22827</v>
+      </c>
+      <c r="T81" s="24">
+        <v>16029</v>
+      </c>
+      <c r="U81" s="24">
+        <v>16063</v>
+      </c>
+      <c r="V81" s="24">
+        <v>22873</v>
+      </c>
+      <c r="W81" s="24">
+        <v>21046</v>
+      </c>
+      <c r="X81" s="24">
+        <v>8812</v>
+      </c>
+      <c r="Y81" s="24">
+        <v>19687</v>
+      </c>
+      <c r="Z81" s="24">
+        <v>15275</v>
+      </c>
+      <c r="AA81" s="24">
+        <v>12620</v>
+      </c>
+      <c r="AB81" s="25">
+        <v>21623</v>
+      </c>
+    </row>
+    <row r="82" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="D82" s="8"/>
+      <c r="R82" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="S82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T82" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="V82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="W82" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="X82" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA82" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB82" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="R83" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="U81" s="3">
-        <f>SUM(U9:U80)</f>
+      <c r="S83" s="28">
+        <f>SUM(S9:S80)</f>
         <v>328.76127594790336</v>
       </c>
-      <c r="V81" s="3">
-        <f t="shared" ref="V81:AF81" si="30">SUM(V9:V80)</f>
-        <v>0</v>
-      </c>
-      <c r="W81" s="3">
-        <f t="shared" si="30"/>
-        <v>2137.4088856624385</v>
-      </c>
-      <c r="X81" s="3">
-        <f t="shared" si="30"/>
+      <c r="T83" s="28">
+        <f t="shared" ref="T83:AB83" si="4">SUM(T9:T80)</f>
+        <v>0</v>
+      </c>
+      <c r="U83" s="28">
+        <f t="shared" si="4"/>
+        <v>2219.5458504243911</v>
+      </c>
+      <c r="V83" s="28">
+        <f t="shared" si="4"/>
         <v>1161.8283055401575</v>
       </c>
-      <c r="Y81" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
-        <f t="shared" si="30"/>
+      <c r="W83" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X83" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="28">
+        <f t="shared" si="4"/>
         <v>1.5358333975418299</v>
       </c>
-      <c r="AB81" s="3">
-        <f t="shared" si="30"/>
+      <c r="Z83" s="28">
+        <f t="shared" si="4"/>
         <v>14.248562764860161</v>
       </c>
-      <c r="AC81" s="3">
-        <f t="shared" si="30"/>
+      <c r="AA83" s="28">
+        <f t="shared" si="4"/>
         <v>107.1399267674947</v>
       </c>
-      <c r="AD81" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AE81" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF81" s="3">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="D82" s="8"/>
-      <c r="T82" s="3" t="s">
+      <c r="AB83" s="29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="R84" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U82" s="3">
-        <f>RANK(U81,$U$81:$AF$81)</f>
+      <c r="S84" s="28">
+        <f>RANK(S83,$S$83:$AB$83)</f>
         <v>3</v>
       </c>
-      <c r="V82" s="3">
-        <f t="shared" ref="V82:AF82" si="31">RANK(V81,$U$81:$AF$81)</f>
+      <c r="T84" s="28">
+        <f>RANK(T83,$S$83:$AB$83)</f>
         <v>7</v>
       </c>
-      <c r="W82" s="3">
-        <f t="shared" si="31"/>
+      <c r="U84" s="28">
+        <f>RANK(U83,$S$83:$AB$83)</f>
         <v>1</v>
       </c>
-      <c r="X82" s="3">
-        <f t="shared" si="31"/>
+      <c r="V84" s="28">
+        <f>RANK(V83,$S$83:$AB$83)</f>
         <v>2</v>
       </c>
-      <c r="Y82" s="3">
-        <f t="shared" si="31"/>
+      <c r="W84" s="28">
+        <f>RANK(W83,$S$83:$AB$83)</f>
         <v>7</v>
       </c>
-      <c r="Z82" s="3">
-        <f t="shared" si="31"/>
+      <c r="X84" s="28">
+        <f>RANK(X83,$S$83:$AB$83)</f>
         <v>7</v>
       </c>
-      <c r="AA82" s="3">
-        <f t="shared" si="31"/>
+      <c r="Y84" s="28">
+        <f>RANK(Y83,$S$83:$AB$83)</f>
         <v>6</v>
       </c>
-      <c r="AB82" s="3">
-        <f t="shared" si="31"/>
+      <c r="Z84" s="28">
+        <f>RANK(Z83,$S$83:$AB$83)</f>
         <v>5</v>
       </c>
-      <c r="AC82" s="3">
-        <f t="shared" si="31"/>
+      <c r="AA84" s="28">
+        <f>RANK(AA83,$S$83:$AB$83)</f>
         <v>4</v>
       </c>
-      <c r="AD82" s="3">
-        <f t="shared" si="31"/>
+      <c r="AB84" s="29">
+        <f>RANK(AB83,$S$83:$AB$83)</f>
         <v>7</v>
       </c>
-      <c r="AE82" s="3">
-        <f t="shared" si="31"/>
+    </row>
+    <row r="85" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="R85" s="22"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="31"/>
+    </row>
+    <row r="86" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="R86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S86" s="28">
+        <v>27</v>
+      </c>
+      <c r="T86" s="28">
+        <f>27-S86</f>
+        <v>0</v>
+      </c>
+      <c r="U86" s="28">
+        <v>18</v>
+      </c>
+      <c r="V86" s="28">
+        <v>16</v>
+      </c>
+      <c r="W86" s="28">
+        <v>0</v>
+      </c>
+      <c r="X86" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="28">
+        <v>4</v>
+      </c>
+      <c r="AA86" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R87" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S87" s="32">
+        <f>RANK(S86,$S$86:$AB$86)</f>
+        <v>1</v>
+      </c>
+      <c r="T87" s="32">
+        <f>RANK(T86,$S$86:$AB$86)</f>
         <v>7</v>
       </c>
-      <c r="AF82" s="3">
-        <f t="shared" si="31"/>
+      <c r="U87" s="32">
+        <f>RANK(U86,$S$86:$AB$86)</f>
+        <v>2</v>
+      </c>
+      <c r="V87" s="32">
+        <f>RANK(V86,$S$86:$AB$86)</f>
+        <v>3</v>
+      </c>
+      <c r="W87" s="32">
+        <f>RANK(W86,$S$86:$AB$86)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="T84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U84" s="3">
-        <v>27</v>
-      </c>
-      <c r="V84" s="3">
-        <f>27-U84</f>
-        <v>0</v>
-      </c>
-      <c r="W84" s="3">
-        <v>18</v>
-      </c>
-      <c r="X84" s="3">
-        <v>16</v>
-      </c>
-      <c r="Y84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB84" s="3">
+      <c r="X87" s="32">
+        <f>RANK(X86,$S$86:$AB$86)</f>
+        <v>7</v>
+      </c>
+      <c r="Y87" s="32">
+        <f>RANK(Y86,$S$86:$AB$86)</f>
+        <v>6</v>
+      </c>
+      <c r="Z87" s="32">
+        <f>RANK(Z86,$S$86:$AB$86)</f>
         <v>4</v>
       </c>
-      <c r="AC84" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="4:32" x14ac:dyDescent="0.3">
-      <c r="T85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U85" s="3">
-        <f>RANK(U84,$U$84:$AF$84)</f>
-        <v>1</v>
-      </c>
-      <c r="V85" s="3">
-        <f t="shared" ref="V85:AF85" si="32">RANK(V84,$U$84:$AF$84)</f>
+      <c r="AA87" s="32">
+        <f>RANK(AA86,$S$86:$AB$86)</f>
+        <v>5</v>
+      </c>
+      <c r="AB87" s="33">
+        <f>RANK(AB86,$S$86:$AB$86)</f>
         <v>7</v>
       </c>
-      <c r="W85" s="3">
-        <f t="shared" si="32"/>
-        <v>2</v>
-      </c>
-      <c r="X85" s="3">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="Y85" s="3">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
-      <c r="Z85" s="3">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
-      <c r="AA85" s="3">
-        <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="AB85" s="3">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="AC85" s="3">
-        <f t="shared" si="32"/>
-        <v>5</v>
-      </c>
-      <c r="AD85" s="3">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
-      <c r="AE85" s="3">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
-      <c r="AF85" s="3">
-        <f t="shared" si="32"/>
-        <v>7</v>
-      </c>
+    </row>
+    <row r="104" spans="32:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="32:36" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF105" s="43"/>
+      <c r="AG105" s="44"/>
+      <c r="AH105" s="44"/>
+      <c r="AI105" s="44"/>
+      <c r="AJ105" s="45"/>
+    </row>
+    <row r="106" spans="32:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF106" s="34"/>
+      <c r="AG106" s="35"/>
+      <c r="AH106" s="35"/>
+      <c r="AI106" s="35"/>
+      <c r="AJ106" s="36"/>
+    </row>
+    <row r="107" spans="32:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF107" s="37"/>
+      <c r="AG107" s="38"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="39"/>
+    </row>
+    <row r="108" spans="32:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF108" s="37"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="38"/>
+      <c r="AI108" s="38"/>
+      <c r="AJ108" s="39"/>
+    </row>
+    <row r="109" spans="32:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF109" s="37"/>
+      <c r="AG109" s="38"/>
+      <c r="AH109" s="38"/>
+      <c r="AI109" s="38"/>
+      <c r="AJ109" s="39"/>
+    </row>
+    <row r="110" spans="32:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF110" s="40"/>
+      <c r="AG110" s="41"/>
+      <c r="AH110" s="41"/>
+      <c r="AI110" s="41"/>
+      <c r="AJ110" s="42"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U82:AF82">
-    <cfRule type="colorScale" priority="2">
+  <mergeCells count="1">
+    <mergeCell ref="AF105:AJ105"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S84:AB84">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8195,8 +7631,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U85:AF85">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="S87:AB87">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
